--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>립모션 이해 및 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네비웍스 견학 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 기초 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">립모션 UI 이벤트 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,6 +521,15 @@
       <c r="B2" s="6">
         <v>20191010</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -529,7 +562,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="류민규" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,55 +41,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>박초화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 이해 및 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네비웍스 견학 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 기초 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">립모션 UI 이벤트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>류민규</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박초화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김다현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이소운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 이해 및 응용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네비웍스 견학 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 기초 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">립모션 UI 이벤트 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +181,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,68 +521,40 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>20191010</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>20191010</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -700,12 +678,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6DA308-21C4-4BD9-B1C8-632F5032AD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="박초화" sheetId="2" r:id="rId2"/>
     <sheet name="류민규" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,13 +96,41 @@
   </si>
   <si>
     <t>류민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯인터액션공부, 립모션 공부하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠가 유튜브 보고 집고 놓는 것 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 더 공부하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,13 +188,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +236,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,6 +255,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +339,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,10 +583,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -653,8 +748,8 @@
       <c r="B38" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38"/>
-  <sortState ref="A2:E5">
+  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -664,24 +759,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">류민규!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -491,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -680,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,6 +745,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020"/>
+    <workbookView windowWidth="28800" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="류민규" sheetId="3" r:id="rId3"/>
+    <sheet name="이소운" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
@@ -19,134 +20,451 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
   </si>
   <si>
     <t>어제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오늘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>박초화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191010</t>
   </si>
   <si>
     <t>김다현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식</t>
+  </si>
+  <si>
+    <t>립모션 이해 및 응용</t>
   </si>
   <si>
     <t>이소운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 이해 및 응용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
   </si>
   <si>
     <t xml:space="preserve">네비웍스 견학 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>립모션 기초 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20191011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">립모션 UI 이벤트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 연습영상 따라하기</t>
+  </si>
+  <si>
+    <t>립모션 손동작 구현</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,9 +472,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -164,7 +724,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -176,23 +745,61 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -483,268 +1090,348 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="4" customWidth="1"/>
-    <col min="3" max="5" width="60.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.3714285714286" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.752380952381" style="7" customWidth="1"/>
+    <col min="3" max="5" width="60.6285714285714" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20191010</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>20191010</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B38" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38"/>
+  <autoFilter ref="B1:B38">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
         <v>20191010</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6DA308-21C4-4BD9-B1C8-632F5032AD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14085" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="박초화" sheetId="2" r:id="rId2"/>
-    <sheet name="류민규" sheetId="3" r:id="rId3"/>
+    <sheet name="이소운" sheetId="5" r:id="rId3"/>
+    <sheet name="류민규" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
@@ -25,162 +21,466 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
   </si>
   <si>
     <t>어제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오늘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>박초화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191010</t>
   </si>
   <si>
     <t>김다현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식</t>
+  </si>
+  <si>
+    <t>립모션 이해 및 응용</t>
   </si>
   <si>
     <t>이소운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 이해 및 응용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.10</t>
+  </si>
+  <si>
+    <t>위젯인터액션공부, 립모션 공부하기</t>
+  </si>
+  <si>
+    <t>2019.10.11</t>
+  </si>
+  <si>
+    <t>젠가 유튜브 보고 집고 놓는 것 구현</t>
+  </si>
+  <si>
+    <t>립모션 더 공부하기</t>
   </si>
   <si>
     <t xml:space="preserve">네비웍스 견학 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>립모션 기초 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20191011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 연습영상 따라하기</t>
+  </si>
+  <si>
+    <t>립모션 손동작 구현</t>
+  </si>
+  <si>
+    <t>류민규</t>
   </si>
   <si>
     <t xml:space="preserve">립모션 UI 이벤트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박초화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯인터액션공부, 립모션 공부하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젠가 유튜브 보고 집고 놓는 것 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 더 공부하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,22 +490,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -213,51 +755,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -306,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,26 +925,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,23 +960,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,325 +1130,419 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="4" customWidth="1"/>
-    <col min="3" max="5" width="60.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.3714285714286" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.752380952381" style="10" customWidth="1"/>
+    <col min="3" max="5" width="60.6285714285714" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>20191010</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>20191010</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+  <autoFilter ref="B1:B38">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="16.8761904761905" customWidth="1"/>
+    <col min="3" max="3" width="32.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="39.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="11.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="26.25" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
-        <v>20191010</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6DA308-21C4-4BD9-B1C8-632F5032AD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="박초화" sheetId="2" r:id="rId2"/>
     <sheet name="류민규" sheetId="3" r:id="rId3"/>
+    <sheet name="김다현" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">김다현!$B$1:$B$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">류민규!$B$1:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">박초화!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -47,15 +45,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김다현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 이해 및 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네비웍스 견학 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 기초 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">립모션 UI 이벤트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박초화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김다현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이소운</t>
+    <t>2019.10.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,7 +97,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20191010</t>
+    <t>위젯인터액션공부, 립모션 공부하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠가 유튜브 보고 집고 놓는 것 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 더 공부하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,66 +117,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">네비웍스 견학 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 기초 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20191011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">립모션 UI 이벤트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박초화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯인터액션공부, 립모션 공부하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젠가 유튜브 보고 집고 놓는 것 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립모션 더 공부하기</t>
+    <t>젠가 마무리 및 립모션 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,26 +337,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,23 +372,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,11 +547,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="4" customWidth="1"/>
+    <col min="3" max="5" width="60.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E5">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,37 +862,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>20191010</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
@@ -748,154 +993,7 @@
       <c r="B38" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8">
-        <v>20191010</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="B1:B38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>이름</t>
   </si>
@@ -126,6 +126,22 @@
   <si>
     <t>이름</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 Jenga Part1~part2 따라하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 립모션으로 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -740,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,6 +821,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>20191012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B3"/>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -816,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3640B-A44B-4370-9692-EC95CF4E8A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14085" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>이름</t>
   </si>
@@ -93,394 +99,88 @@
   </si>
   <si>
     <t xml:space="preserve">립모션 UI 이벤트 </t>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드버튼 인터액션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼씬전환,버튼 위젯전환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -503,255 +203,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,62 +246,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1130,27 +547,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3714285714286" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.752380952381" style="10" customWidth="1"/>
-    <col min="3" max="5" width="60.6285714285714" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="10" customWidth="1"/>
+    <col min="3" max="5" width="60.625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,10 +584,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" spans="1:2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:4">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,136 +617,133 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="17" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="18" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="19" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="20" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="21" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="22" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="23" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="24" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="25" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="26" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="27" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="28" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="29" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="30" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="31" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="32" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="33" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="34" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="35" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="36" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="37" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.75" spans="2:2">
+    <row r="38" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38">
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A2:E5">
+  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.8761904761905" customWidth="1"/>
-    <col min="3" max="3" width="32.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="39.752380952381" customWidth="1"/>
-    <col min="5" max="5" width="11.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +775,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1376,31 +790,45 @@
       </c>
       <c r="E3" s="8"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1452,29 +880,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1508,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1526,23 +953,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3640B-A44B-4370-9692-EC95CF4E8A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>이름</t>
   </si>
@@ -115,12 +109,28 @@
   <si>
     <t>버튼씬전환,버튼 위젯전환</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션Jenga part1~part2 해보기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 키패드에 립모션넣어보기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,7 +562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -717,8 +727,8 @@
       <c r="B38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+  <autoFilter ref="B1:B38"/>
+  <sortState ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -728,10 +738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -886,11 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -952,6 +962,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>20191012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -959,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>이름</t>
   </si>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
     </row>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView windowWidth="14085" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>이름</t>
   </si>
@@ -71,6 +71,15 @@
     <t>립모션 더 공부하기</t>
   </si>
   <si>
+    <t>2019.10.12</t>
+  </si>
+  <si>
+    <t>키패드버튼 인터액션</t>
+  </si>
+  <si>
+    <t>버튼씬전환,버튼 위젯전환</t>
+  </si>
+  <si>
     <t xml:space="preserve">네비웍스 견학 </t>
   </si>
   <si>
@@ -89,108 +98,410 @@
     <t>립모션 손동작 구현</t>
   </si>
   <si>
+    <t>위젯 사용, 버튼 클릭</t>
+  </si>
+  <si>
+    <t>없음음</t>
+  </si>
+  <si>
     <t>류민규</t>
   </si>
   <si>
     <t xml:space="preserve">립모션 UI 이벤트 </t>
   </si>
   <si>
-    <t>박초화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>키패드버튼 인터액션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼씬전환,버튼 위젯전환</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>립모션Jenga part1~part2 해보기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>립모션 키패드에 립모션넣어보기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -213,9 +524,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -235,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,30 +800,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,27 +1154,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="10" customWidth="1"/>
-    <col min="3" max="5" width="60.625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="14.3714285714286" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.752380952381" style="11" customWidth="1"/>
+    <col min="3" max="5" width="60.6285714285714" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,22 +1191,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>20191010</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -619,141 +1216,144 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
+    <row r="6" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B38" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38"/>
+  <autoFilter ref="B1:B38">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="2" max="2" width="16.8761904761905" customWidth="1"/>
+    <col min="3" max="3" width="32.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="39.752380952381" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="26.25" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -770,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -785,7 +1385,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -800,118 +1400,46 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
-        <v>20191010</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -928,72 +1456,166 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>20191012</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A6744-CED4-4B79-A717-74D80681FD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>이름</t>
   </si>
@@ -122,12 +128,28 @@
   <si>
     <t>20191012</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬전환,위젯전환 공부</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯전환</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +279,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -316,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,9 +377,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,8 +786,8 @@
       <c r="B38" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38"/>
-  <sortState ref="A2:E5">
+  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -735,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,15 +874,29 @@
       </c>
       <c r="E4" s="9"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -910,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1000,10 +1076,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A6744-CED4-4B79-A717-74D80681FD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>이름</t>
   </si>
@@ -144,12 +138,32 @@
   <si>
     <t>위젯전환</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드와 텍스트 립모션으로 동작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 개별 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,26 +391,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,23 +426,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -786,8 +766,8 @@
       <c r="B38" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+  <autoFilter ref="B1:B38"/>
+  <sortState ref="A2:E5">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -797,11 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -986,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1076,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1140,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -4,24 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="박초화" sheetId="2" r:id="rId2"/>
-    <sheet name="이소운" sheetId="5" r:id="rId3"/>
-    <sheet name="류민규" sheetId="3" r:id="rId4"/>
-    <sheet name="김다현" sheetId="4" r:id="rId5"/>
+    <sheet name="박초화" sheetId="2" r:id="rId1"/>
+    <sheet name="이소운" sheetId="5" r:id="rId2"/>
+    <sheet name="류민규" sheetId="3" r:id="rId3"/>
+    <sheet name="김다현" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>이름</t>
   </si>
@@ -41,16 +37,10 @@
     <t>박초화</t>
   </si>
   <si>
-    <t>20191010</t>
-  </si>
-  <si>
     <t>김다현</t>
   </si>
   <si>
     <t>회식</t>
-  </si>
-  <si>
-    <t>립모션 이해 및 응용</t>
   </si>
   <si>
     <t>이소운</t>
@@ -121,6 +111,42 @@
   </si>
   <si>
     <t>20191012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬전환,위젯전환 공부</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯전환</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드와 텍스트 립모션으로 동작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 개별 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +283,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,6 +297,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,186 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="11" customWidth="1"/>
-    <col min="3" max="5" width="60.625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12">
-        <v>20191010</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:B38"/>
-  <sortState ref="A2:E5">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -787,13 +643,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -802,24 +658,38 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -854,53 +724,53 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -944,53 +814,53 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -999,12 +869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1034,57 +904,71 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>이름</t>
   </si>
@@ -148,6 +148,22 @@
   <si>
     <t>없음</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 키패드 결합(숫자 tick으로 연속출력)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속숫자 수정하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -781,10 +797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,6 +877,23 @@
       </c>
       <c r="E4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>20191014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -8,26 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A6744-CED4-4B79-A717-74D80681FD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A0FBF-0B6B-4E1B-9A70-F1B4485D68DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="박초화" sheetId="2" r:id="rId2"/>
-    <sheet name="이소운" sheetId="5" r:id="rId3"/>
-    <sheet name="류민규" sheetId="3" r:id="rId4"/>
-    <sheet name="김다현" sheetId="4" r:id="rId5"/>
+    <sheet name="박초화" sheetId="2" r:id="rId1"/>
+    <sheet name="이소운" sheetId="5" r:id="rId2"/>
+    <sheet name="류민규" sheetId="3" r:id="rId3"/>
+    <sheet name="김다현" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>이름</t>
   </si>
@@ -47,16 +43,10 @@
     <t>박초화</t>
   </si>
   <si>
-    <t>20191010</t>
-  </si>
-  <si>
     <t>김다현</t>
   </si>
   <si>
     <t>회식</t>
-  </si>
-  <si>
-    <t>립모션 이해 및 응용</t>
   </si>
   <si>
     <t>이소운</t>
@@ -143,6 +133,58 @@
   </si>
   <si>
     <t>위젯전환</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드와 텍스트 립모션으로 동작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 개별 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 키패드 결합(숫자 tick으로 연속출력)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속숫자 수정하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬전환,위젯전환 으로 일부 화면 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마트클래스다이어 그램 작성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -622,186 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="11" customWidth="1"/>
-    <col min="3" max="5" width="60.625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12">
-        <v>20191010</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="2:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:B38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -849,13 +715,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -864,28 +730,42 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>36</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -895,8 +775,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -930,53 +810,53 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -985,12 +865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1020,53 +900,70 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>20191014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1075,12 +972,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,57 +1007,71 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12">
         <v>20191010</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A0FBF-0B6B-4E1B-9A70-F1B4485D68DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>이름</t>
   </si>
@@ -186,12 +180,28 @@
   <si>
     <t xml:space="preserve"> 마트클래스다이어 그램 작성</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 개별 클릭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 손의 스켈레탈 메쉬와 UI 위젯의 충돌 체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,26 +429,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,23 +464,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,10 +639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -776,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,7 +842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -973,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1050,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A0FBF-0B6B-4E1B-9A70-F1B4485D68DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>이름</t>
   </si>
@@ -185,13 +179,29 @@
   </si>
   <si>
     <t xml:space="preserve"> 마트클래스다이어 그램 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 립모션으로 동작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 위젯클릭 보완</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,26 +429,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,23 +464,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,10 +639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -866,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -966,6 +942,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>20191015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E4337-006A-450C-857C-54CF938B1068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14085" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>이름</t>
   </si>
@@ -152,401 +158,87 @@
   </si>
   <si>
     <t>키패드 개별 클릭</t>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트화면구성정리, 위젯텍스트 바꾸기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 텍스트,버튼 비져블 사용, 위젯 공부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -569,251 +261,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -864,61 +314,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1205,27 +611,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.8761904761905" customWidth="1"/>
-    <col min="3" max="3" width="32.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="39.752380952381" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +663,7 @@
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +678,7 @@
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +693,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1301,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1315,156 +721,44 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="9">
-        <v>20191010</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>20191012</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>20191014</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>20191015</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +775,131 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9">
+        <v>20191010</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>20191012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>20191014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>20191015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
@@ -1515,7 +933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1567,29 +985,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3714285714286" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.752380952381" style="4" customWidth="1"/>
-    <col min="3" max="5" width="60.6285714285714" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="4" customWidth="1"/>
+    <col min="3" max="5" width="60.625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1623,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1640,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:5">
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1657,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1674,108 +1091,108 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="17" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="18" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="19" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="20" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="21" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="22" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="23" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="24" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="25" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="26" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="27" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="28" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="29" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="30" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="31" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="32" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="33" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="34" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="35" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="36" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="37" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="38" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E4337-006A-450C-857C-54CF938B1068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>이름</t>
   </si>
@@ -174,12 +168,28 @@
   <si>
     <t>위젯 텍스트,버튼 비져블 사용, 위젯 공부</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 위젯클릭 보완</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯클릭시 엑터와 위젯생성파괴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,10 +626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -867,11 +877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,6 +994,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>20191016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -991,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>이름</t>
   </si>
@@ -142,48 +142,84 @@
     <t>김다현</t>
   </si>
   <si>
+    <t>박초화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트화면구성정리, 위젯텍스트 바꾸기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 텍스트,버튼 비져블 사용, 위젯 공부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 위젯클릭 보완</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯클릭시 엑터와 위젯생성파괴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>20191012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20191014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>키패드와 텍스트 립모션으로 동작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>키패드 개별 클릭</t>
-  </si>
-  <si>
-    <t>박초화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 손의 스켈레탈 메쉬와 UI 위젯의 충돌 체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 UMGUI 이벤트 체크</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019.10.16</t>
+    <t>충돌이 되는것과 안 되는것 차이 찾기</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마트화면구성정리, 위젯텍스트 바꾸기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯 텍스트,버튼 비져블 사용, 위젯 공부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>키패드 위젯클릭 보완</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯클릭시 엑터와 위젯생성파괴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -213,13 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -234,6 +263,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -299,28 +336,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,111 +679,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>48</v>
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -786,10 +823,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>20191010</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -803,10 +840,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -871,7 +908,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -880,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -910,10 +947,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>20191010</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -927,10 +964,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -996,23 +1033,23 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>20191016</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1021,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,7 +1109,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
@@ -1089,40 +1126,68 @@
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
@@ -1218,7 +1283,7 @@
       <c r="B38" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C272AF-FC3E-4EA0-860A-D22F60CA5BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>이름</t>
   </si>
@@ -220,13 +226,33 @@
   <si>
     <t>충돌이 되는것과 안 되는것 차이 찾기</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마별씬 이동 전까지의 버튼들 기본틀 구성 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위젯관련 정보서치, 액터안에 여러 개의 위젯을 넣어두고 버튼 클릭으로 교체 하는 방법으로 구성해 보기 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +302,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,13 +385,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +493,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,6 +545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,17 +737,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
@@ -708,7 +782,9 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -723,63 +799,93 @@
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>44</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -914,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1055,10 +1161,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1128,13 +1234,13 @@
       <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>24</v>
       </c>
     </row>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -11,13 +11,14 @@
     <sheet name="이소운" sheetId="5" r:id="rId2"/>
     <sheet name="류민규" sheetId="3" r:id="rId3"/>
     <sheet name="김다현" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>이름</t>
   </si>
@@ -219,6 +220,38 @@
   </si>
   <si>
     <t>충돌이 되는것과 안 되는것 차이 찾기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마별씬 이동 전까지의 버튼들 기본틀 구성 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위젯관련 정보서치, 액터안에 여러 개의 위젯을 넣어두고 버튼 클릭으로 교체 하는 방법으로 구성해 보기 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행, 병원 동영상 화면</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +309,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,13 +392,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,16 +711,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
@@ -708,7 +755,9 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -723,63 +772,93 @@
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>44</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1058,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,13 +1207,13 @@
       <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1190,7 +1269,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
@@ -1287,4 +1380,17 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C272AF-FC3E-4EA0-860A-D22F60CA5BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14085" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>이름</t>
   </si>
@@ -52,6 +46,9 @@
     <t>위젯인터액션공부, 립모션 공부하기</t>
   </si>
   <si>
+    <t>없음</t>
+  </si>
+  <si>
     <t>2019.10.11</t>
   </si>
   <si>
@@ -88,6 +85,24 @@
     <t xml:space="preserve"> 마트클래스다이어 그램 작성</t>
   </si>
   <si>
+    <t>2019.10.16</t>
+  </si>
+  <si>
+    <t>마트화면구성정리, 위젯텍스트 바꾸기</t>
+  </si>
+  <si>
+    <t>위젯 텍스트,버튼 비져블 사용, 위젯 공부</t>
+  </si>
+  <si>
+    <t>2019.10.17</t>
+  </si>
+  <si>
+    <t>테마별씬 이동 전까지의 버튼들 기본틀 구성 완료</t>
+  </si>
+  <si>
+    <t xml:space="preserve">위젯관련 정보서치, 액터안에 여러 개의 위젯을 넣어두고 버튼 클릭으로 교체 하는 방법으로 구성해 보기 </t>
+  </si>
+  <si>
     <t>이소운</t>
   </si>
   <si>
@@ -97,9 +112,6 @@
     <t>립모션 기초 이해</t>
   </si>
   <si>
-    <t>없음</t>
-  </si>
-  <si>
     <t>20191011</t>
   </si>
   <si>
@@ -112,15 +124,24 @@
     <t>위젯 사용, 버튼 클릭</t>
   </si>
   <si>
-    <t>없음음</t>
-  </si>
-  <si>
     <t>병결</t>
   </si>
   <si>
     <t>트리거겸 마우스로 구현하기</t>
   </si>
   <si>
+    <t>패스트푸드점 클래스 다이어그램, 트리거로 레벨 변경 시키기</t>
+  </si>
+  <si>
+    <t>탭호스트 찾아서 구현하기</t>
+  </si>
+  <si>
+    <t>탭호스트기능구현</t>
+  </si>
+  <si>
+    <t>메뉴판 완성, 장바구니 기능 구현하기</t>
+  </si>
+  <si>
     <t>류민규</t>
   </si>
   <si>
@@ -145,181 +166,442 @@
     <t>립모션 위젯클릭 보완</t>
   </si>
   <si>
+    <t>키패드 위젯클릭 보완</t>
+  </si>
+  <si>
+    <t>위젯클릭시 엑터와 위젯생성파괴</t>
+  </si>
+  <si>
     <t>김다현</t>
   </si>
   <si>
-    <t>박초화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>마트화면구성정리, 위젯텍스트 바꾸기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯 텍스트,버튼 비져블 사용, 위젯 공부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>키패드 위젯클릭 보완</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯클릭시 엑터와 위젯생성파괴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>류민규</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20191012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김다현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20191014</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>키패드와 텍스트 립모션으로 동작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>키패드 개별 클릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20191015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>립모션 손의 스켈레탈 메쉬와 UI 위젯의 충돌 체크</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20191016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>립모션 UMGUI 이벤트 체크</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>충돌이 되는것과 안 되는것 차이 찾기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>박초화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.10.17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>테마별씬 이동 전까지의 버튼들 기본틀 구성 완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">위젯관련 정보서치, 액터안에 여러 개의 위젯을 넣어두고 버튼 클릭으로 교체 하는 방법으로 구성해 보기 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -342,9 +624,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -370,6 +894,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,33 +912,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,7 +1028,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,26 +1061,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,23 +1096,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,186 +1266,187 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="2" max="2" width="16.8761904761905" customWidth="1"/>
+    <col min="3" max="3" width="42.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="39.752380952381" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="26.25" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>65</v>
+      <c r="D6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:5">
+      <c r="A8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,114 +1463,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9">
         <v>20191010</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
       </c>
       <c r="B5">
         <v>20191014</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
       </c>
       <c r="B6">
         <v>20191015</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>20191016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>20191017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,131 +1622,132 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9">
         <v>20191010</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>20191012</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>20191014</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>20191015</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>20191016</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="4" customWidth="1"/>
-    <col min="3" max="5" width="60.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.3714285714286" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.752380952381" style="4" customWidth="1"/>
+    <col min="3" max="5" width="60.6285714285714" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,75 +1764,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6">
         <v>20191010</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1269,16 +1840,16 @@
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1292,105 +1863,105 @@
         <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="32" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="35" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="36" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="38" s="2" customFormat="1" ht="18.75" spans="2:2">
       <c r="B38" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="14085" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>이름</t>
   </si>
@@ -200,408 +200,95 @@
   </si>
   <si>
     <t>충돌이 되는것과 안 되는것 차이 찾기</t>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 클릭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯클릭 립모셥으로</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 위젯 pressed  Widget 작동</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 양손사용, 위젯겹치기 및 상호작용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -624,251 +311,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,57 +370,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1266,27 +664,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.8761904761905" customWidth="1"/>
-    <col min="3" max="3" width="42.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="39.752380952381" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="45" spans="1:5">
+    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -1423,30 +821,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -1497,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1514,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1531,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1583,29 +980,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="32.752380952381" customWidth="1"/>
-    <col min="4" max="4" width="24.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -1639,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
@@ -1656,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1673,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1707,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1724,30 +1120,63 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>20191017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>20191018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3714285714286" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.752380952381" style="4" customWidth="1"/>
-    <col min="3" max="5" width="60.6285714285714" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="4" customWidth="1"/>
+    <col min="3" max="5" width="60.625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1781,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1798,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:5">
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -1815,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1832,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1849,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18.75" spans="1:5">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1866,102 +1295,102 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="17" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="18" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="19" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="20" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="21" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="22" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="23" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="24" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="25" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="26" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="27" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="28" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="29" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="30" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="31" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="32" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="33" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="34" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="35" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="36" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="37" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="18.75" spans="2:2">
+    <row r="38" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B12ACB-8989-441F-B8FF-BCE82962D35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="72">
   <si>
     <t>이름</t>
   </si>
@@ -223,13 +229,33 @@
   </si>
   <si>
     <t>립모션 양손사용, 위젯겹치기 및 상호작용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯액터에 위젯 컴포넌트 바꾸며 버튼상호 작용 마우스 구동은 잘됨. 립모션에 버튼연동 하는것 시도 했는데 위젯이 겹쳤을때 숨겨져도 작동은 되는 문제, 아예 사라지면 그후 적용이 안된다는 문제 발견, 립모션 오른손이 인터렉션이 안됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 액터들을 디스트로이 스폰을 해서 버튼을 바꾸는 작업, 립모션 가능하도록 적용 시키기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,13 +337,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +404,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,6 +421,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,9 +505,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,15 +900,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -986,10 +1083,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B12ACB-8989-441F-B8FF-BCE82962D35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6863AA1A-9E81-4D28-ADBD-E3A6A518ADE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>이름</t>
   </si>
@@ -245,6 +245,26 @@
   </si>
   <si>
     <t>위젯 액터들을 디스트로이 스폰을 해서 버튼을 바꾸는 작업, 립모션 가능하도록 적용 시키기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼,키패드 클릭 액터사용 립모션으로 프레스하기 성공</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr퀘스트 언리얼이랑 연결하기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -302,6 +322,7 @@
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -344,8 +365,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -354,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,13 +435,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -884,38 +925,58 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="20" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6863AA1A-9E81-4D28-ADBD-E3A6A518ADE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>이름</t>
   </si>
@@ -269,13 +263,93 @@
   </si>
   <si>
     <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191017</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191018</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191022</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패널바꾸기 부모 클래스 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패널바꾸기 부모 클래스</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌이 되는 것과 안되는 것 차이 찾기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션으로 버튼 클릭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션으로 물건 집기 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 인터페이스 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>립모션 오버랩방식보완, Oculust Quest 설치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oculus Qusest 설치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oculust Quest 설치성공</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oculus Qusest에서 립모션, 일인칭,삼인칭,VR모드, Widget Interaction 해보기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oculust Qusest 각종환경에서 시도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM에 대한 기능분류, 기본 Mesh만들기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,26 +620,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,23 +655,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -790,11 +830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1144,11 +1184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1352,54 @@
         <v>64</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>20191021</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>20191022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>20191023</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1319,11 +1407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,7 +1422,7 @@
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1368,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -1402,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1436,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1453,31 +1541,79 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB08AA-155E-41F5-ADEE-9065829845D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>이름</t>
   </si>
@@ -343,14 +349,38 @@
   </si>
   <si>
     <t>ATM에 대한 기능분류, 기본 Mesh만들기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM-계좌이체 단계 2개 화면 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯화면 패널 바꾸는 것 해보고 결정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM화면 제작 후 방식 결정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이브 연결 시도, ATM 화면 구성 나누고 화면 만들기 시작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +430,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -454,13 +492,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,13 +567,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,7 +645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,9 +678,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,6 +730,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -830,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,41 +1074,69 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1026,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1184,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1407,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
   <si>
     <t>이름</t>
   </si>
@@ -343,6 +343,10 @@
   </si>
   <si>
     <t>ATM에 대한 기능분류, 기본 Mesh만들기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패!</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -833,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1410,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1552,9 +1556,7 @@
         <v>85</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
+      <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1567,9 +1569,7 @@
         <v>85</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
+      <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1602,6 +1602,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB08AA-155E-41F5-ADEE-9065829845D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB62E18-63BE-47FF-A6F0-D24B35988226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>이름</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>바이브 연결 시도, ATM 화면 구성 나누고 화면 만들기 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯화면 나누는 방식 다시 토의 후 화면 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯화면 틀 제작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -483,33 +495,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,17 +565,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,10 +1100,10 @@
       <c r="B11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1131,11 +1117,31 @@
       <c r="B12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>102</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB62E18-63BE-47FF-A6F0-D24B35988226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>이름</t>
   </si>
@@ -385,13 +379,25 @@
   </si>
   <si>
     <t>위젯화면 틀 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATM widget 만들기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh정리 및 Widget</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,26 +670,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,23 +705,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,10 +880,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1152,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1310,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1526,6 +1498,48 @@
         <v>96</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>20191024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>20191025</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>20191026</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB08AA-155E-41F5-ADEE-9065829845D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>이름</t>
   </si>
@@ -373,13 +367,37 @@
   </si>
   <si>
     <t>바이브 연결 시도, ATM 화면 구성 나누고 화면 만들기 시작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯화면 나누는 방식 다시 토의 후 화면 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯화면 틀 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>류민규</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATM widget 만들기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh정리 및 Widget</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -483,33 +501,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,17 +571,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,26 +670,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,23 +705,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,10 +1072,10 @@
       <c r="B11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1131,11 +1089,31 @@
       <c r="B12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>102</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1304,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,6 +1498,48 @@
         <v>96</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>20191024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>20191025</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>20191026</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1527,10 +1547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF95531-8446-4AE7-B19E-70CDC4C943A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="5775" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
   <si>
     <t>이름</t>
   </si>
@@ -391,13 +397,65 @@
   </si>
   <si>
     <t>mesh정리 및 Widget</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.26</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.27</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트푸드 화면 구성 틀 짜기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트 푸드 메인 화면 구성 틀 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트 푸드 화면 구성 틀 구상하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM 계좌이체 라인 위젯스위처 방식으로 이어붙이기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM 화면 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 스위치 방식으로 위젯 패널 체인지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 스위치 방식 으로 패널 체인지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 하나에 모든 패널들을 다 넣기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.29</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -501,13 +559,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +644,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,9 +754,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,6 +806,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,11 +998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,6 +1234,82 @@
         <v>64</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1282,10 +1476,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1547,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF95531-8446-4AE7-B19E-70CDC4C943A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776AC180-BC5B-4030-81AA-341C7C118C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
   <si>
     <t>이름</t>
   </si>
@@ -449,6 +449,14 @@
   </si>
   <si>
     <t>2019.10.29</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트 푸드화면 페이지 넘어가는 구성 , 위젯 애니메이션 이용 해서 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트푸트 메인화면, 결제화면 구성 틀 마무리 해서 다현이에서 넘겨주기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +668,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,13 +1313,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>121</v>
       </c>
+      <c r="C18" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776AC180-BC5B-4030-81AA-341C7C118C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -463,7 +457,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,26 +759,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,23 +794,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1499,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1764,11 +1724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A8811-A958-4E54-85A8-5B0C65BAA649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박초화" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
   <si>
     <t>이름</t>
   </si>
@@ -451,13 +457,61 @@
   </si>
   <si>
     <t>패스트푸트 메인화면, 결제화면 구성 틀 마무리 해서 다현이에서 넘겨주기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 게임 오버랩 방식이 아닌 위젯 클릭 방식으로 변환</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카드게임 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 게임 오버랩 방식으로 카드 회전 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 게임 오버랩 방식으로 카드 회전 구현하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 게임 오버랩 방식이 아닌 위젯 클릭 방식으로 변환하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 게임 셔플 사용해 타겟 포인트 배열을 섞어서 랜덤으로 카드를 레벨에 배치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤으로 카드를 화면에 배치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트푸드 틀을 구현해 다현에게 넘겨줌</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -561,24 +615,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,22 +691,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -726,7 +757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +790,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,6 +842,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="A9:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1212,10 +1277,10 @@
       <c r="B14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -1229,10 +1294,10 @@
       <c r="B15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -1246,10 +1311,10 @@
       <c r="B16" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -1263,10 +1328,10 @@
       <c r="B17" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -1280,10 +1345,10 @@
       <c r="B18" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="24" t="s">
         <v>123</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -1291,7 +1356,72 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="24"/>
+      <c r="A19" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1301,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1724,10 +1854,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/스크럼/스크럼.xlsx
+++ b/스크럼/스크럼.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\스크럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A8811-A958-4E54-85A8-5B0C65BAA649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F23D8F-1F94-4023-8CD7-A148A04E356A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <t>이름</t>
   </si>
@@ -480,10 +480,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">카드게임 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>카드 게임 오버랩 방식으로 카드 회전 구현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -505,6 +501,29 @@
   </si>
   <si>
     <t>패스트푸드 틀을 구현해 다현에게 넘겨줌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝 맞은 두장 같이 다시 뒤집어 지는 로직 구현하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>두장 같이 뒤집어지는 로직 구현중</t>
+  </si>
+  <si>
+    <t>두장 같이 뒤집어지는 로직 구현중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계 구현하고 3단계 까지 구현 하기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1035,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="A9:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1363,10 +1382,10 @@
         <v>125</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>64</v>
@@ -1380,10 +1399,10 @@
         <v>126</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>64</v>
@@ -1397,10 +1416,10 @@
         <v>124</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>64</v>
@@ -1417,9 +1436,43 @@
         <v>128</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E22" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>64</v>
       </c>
     </row>
